--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Babst\Documents\GitHub\workload-sharing-cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB29B345-F9A3-43C1-BA2A-9B6AAFDB8E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FFB582-1A7E-4308-8515-69EE83A53396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="18105" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Logboek</t>
   </si>
@@ -74,7 +74,19 @@
     <t>onderzoek</t>
   </si>
   <si>
-    <t>missende uren: 5</t>
+    <t>Thuis kijken naar de instalatie van kubernetes</t>
+  </si>
+  <si>
+    <t>experimenteren/onderzoek</t>
+  </si>
+  <si>
+    <t>experimenteren/onderzoek (+thuis vms)</t>
+  </si>
+  <si>
+    <t>onderzoek/digicafe/thuis</t>
+  </si>
+  <si>
+    <t>onderzoek/</t>
   </si>
 </sst>
 </file>
@@ -298,6 +310,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,7 +616,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B24" sqref="B8:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,8 +669,9 @@
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
+      <c r="C7" s="8" t="str">
+        <f>"missende uren: " &amp; 200-SUM(B8:B24)</f>
+        <v>missende uren: 150</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -721,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,10 +746,10 @@
         <v>45560</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,49 +764,103 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="14">
+        <v>45567</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="14">
+        <v>45569</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="14">
+        <v>45574</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="14">
+        <v>45576</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="14">
+        <v>45581</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="14">
+        <v>45583</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="14">
+        <v>45588</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="14">
+        <v>45590</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="14">
+        <v>45596</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -906,7 +977,12 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <f>"totaal: " &amp; SUM(B8:B24)</f>
+        <v>totaal: 50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -914,19 +990,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100340A0E52BF606D4FB556FF2D954F0921" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="854e2af497e0786b5f39a563072763bb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="392be0de-ef32-4216-ab29-51df0a13ed87" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e39b866f1b7c6236846344ebb8b74916" ns2:_="">
-    <xsd:import namespace="392be0de-ef32-4216-ab29-51df0a13ed87"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007241FE93D94407449F69AB352B9EF5FA" ma:contentTypeVersion="18" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3ca4e14133bbaf660f7b85bebd97e844">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97a02caf-e968-440a-8b6f-29e09fc95420" xmlns:ns4="3a186755-4862-4d33-9e98-6116ba956cf5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11a1f66d9b106607d81239adfe1feb15" ns3:_="" ns4:_="">
+    <xsd:import namespace="97a02caf-e968-440a-8b6f-29e09fc95420"/>
+    <xsd:import namespace="3a186755-4862-4d33-9e98-6116ba956cf5"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSystemTags" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -934,27 +1025,121 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="392be0de-ef32-4216-ab29-51df0a13ed87" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="97a02caf-e968-440a-8b6f-29e09fc95420" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Hint-hash delen" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3a186755-4862-4d33-9e98-6116ba956cf5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="25" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1058,12 +1243,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1072,14 +1251,23 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311B005C-D62C-4B72-BACD-7F070F75A8FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B66AA168-A40C-48C3-9997-B533ED96E767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="392be0de-ef32-4216-ab29-51df0a13ed87"/>
+    <ds:schemaRef ds:uri="97a02caf-e968-440a-8b6f-29e09fc95420"/>
+    <ds:schemaRef ds:uri="3a186755-4862-4d33-9e98-6116ba956cf5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1091,18 +1279,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C25D75-4D62-4D5D-AA04-356B3D175FF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C25D75-4D62-4D5D-AA04-356B3D175FF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="3a186755-4862-4d33-9e98-6116ba956cf5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="97a02caf-e968-440a-8b6f-29e09fc95420"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Babst\Documents\GitHub\workload-sharing-cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FFB582-1A7E-4308-8515-69EE83A53396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F53DF-1045-4416-AA96-4999F12927C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Logboek</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>onderzoek/</t>
+  </si>
+  <si>
+    <t>ziek, thuis bezig met vm's proberen in te stellen</t>
   </si>
 </sst>
 </file>
@@ -269,12 +272,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +296,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -310,10 +315,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81495A-0DF2-4772-8080-730C001C6703}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B8:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,335 +653,478 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="str">
-        <f>"missende uren: " &amp; 200-SUM(B8:B24)</f>
-        <v>missende uren: 150</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="C7" s="6" t="str">
+        <f>"missende uren: " &amp; 200-SUM(B8:B53)</f>
+        <v>missende uren: 70</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>45539</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>45541</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>45546</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>45548</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>45553</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>45555</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>45560</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="12">
         <v>45562</v>
       </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>45567</v>
       </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>45569</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>45574</v>
       </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>45576</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="12">
         <v>45581</v>
       </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="12">
         <v>45583</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="12">
         <v>45588</v>
       </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="12">
         <v>45590</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>45596</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="12">
+        <v>45595</v>
+      </c>
+      <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="12">
+        <v>45967</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="12">
+        <v>45974</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="13">
+        <v>45976</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="12">
+        <v>45981</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="12">
+        <v>45983</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="13">
+        <v>45987</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="12">
+        <v>45988</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="13">
+        <v>45990</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="12">
+        <v>45997</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="13">
+        <v>46000</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="12">
+        <v>46002</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="12">
+        <v>46004</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="12">
+        <v>46009</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="13">
+        <v>46010</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="13">
+        <v>45665</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="13">
+        <v>45667</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="12">
+        <v>45672</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="12">
+        <v>45674</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="12">
+        <v>45679</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="12">
+        <v>45686</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="str">
-        <f>"totaal: " &amp; SUM(B8:B24)</f>
-        <v>totaal: 50</v>
+      <c r="A46" s="12">
+        <v>45688</v>
+      </c>
+      <c r="B46" s="15">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>45695</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>45700</v>
+      </c>
+      <c r="B48" s="15">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>45702</v>
+      </c>
+      <c r="B49" s="15">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="15">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15">
+        <v>4</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
+        <v>45721</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <f>"totaal: " &amp; SUM(B8:B53)</f>
+        <v>totaal: 130</v>
       </c>
     </row>
   </sheetData>
@@ -990,6 +1134,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007241FE93D94407449F69AB352B9EF5FA" ma:contentTypeVersion="18" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3ca4e14133bbaf660f7b85bebd97e844">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97a02caf-e968-440a-8b6f-29e09fc95420" xmlns:ns4="3a186755-4862-4d33-9e98-6116ba956cf5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11a1f66d9b106607d81239adfe1feb15" ns3:_="" ns4:_="">
     <xsd:import namespace="97a02caf-e968-440a-8b6f-29e09fc95420"/>
@@ -1242,24 +1403,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C25D75-4D62-4D5D-AA04-356B3D175FF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="3a186755-4862-4d33-9e98-6116ba956cf5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="97a02caf-e968-440a-8b6f-29e09fc95420"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B66AA168-A40C-48C3-9997-B533ED96E767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1276,29 +1445,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C25D75-4D62-4D5D-AA04-356B3D175FF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="3a186755-4862-4d33-9e98-6116ba956cf5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="97a02caf-e968-440a-8b6f-29e09fc95420"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Babst\Documents\GitHub\workload-sharing-cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F53DF-1045-4416-AA96-4999F12927C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EBC2D-6D06-4DDD-B882-8C325F0212E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Logboek</t>
   </si>
@@ -74,9 +74,6 @@
     <t>onderzoek</t>
   </si>
   <si>
-    <t>Thuis kijken naar de instalatie van kubernetes</t>
-  </si>
-  <si>
     <t>experimenteren/onderzoek</t>
   </si>
   <si>
@@ -86,10 +83,25 @@
     <t>onderzoek/digicafe/thuis</t>
   </si>
   <si>
-    <t>onderzoek/</t>
-  </si>
-  <si>
     <t>ziek, thuis bezig met vm's proberen in te stellen</t>
+  </si>
+  <si>
+    <t>verandering van os wegens tijdsnood</t>
+  </si>
+  <si>
+    <t>Thuis kijken naar de instalatie van kubernetes (vm werkten, maar gaven het toen op)</t>
+  </si>
+  <si>
+    <t>besloten de cluster te vergeten, en bezig te gaan met flamenco</t>
+  </si>
+  <si>
+    <t>verder kijken naar kubernetes</t>
+  </si>
+  <si>
+    <t>in twijfel trekken of kubernetes wel handig is en een test-setup maken</t>
+  </si>
+  <si>
+    <t>14:00-16:00 17:00-17:45   afwerken logboek, beginnen verslag?</t>
   </si>
 </sst>
 </file>
@@ -272,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -299,7 +311,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -614,17 +625,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81495A-0DF2-4772-8080-730C001C6703}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.140625" customWidth="1"/>
   </cols>
@@ -671,8 +682,8 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>"missende uren: " &amp; 200-SUM(B8:B53)</f>
-        <v>missende uren: 70</v>
+        <f>"missende uren: " &amp; 200-SUM(B8:B63)</f>
+        <v>missende uren: 48</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -700,21 +711,21 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>45546</v>
+        <v>45909</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>45548</v>
+        <v>45546</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -722,87 +733,87 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>45553</v>
+        <v>45547</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>45555</v>
+        <v>45548</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>45560</v>
+        <v>45551</v>
       </c>
       <c r="B14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>45562</v>
+        <v>45553</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>45567</v>
+        <v>45554</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>45569</v>
+        <v>45555</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>45574</v>
+        <v>45555</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>45576</v>
+        <v>45560</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -810,54 +821,54 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>45581</v>
+        <v>45562</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>45583</v>
+        <v>45567</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>45588</v>
+        <v>45568</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>45590</v>
+        <v>45569</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>45595</v>
+        <v>45574</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -865,115 +876,139 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>45967</v>
+        <v>45576</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>45974</v>
+        <v>45579</v>
       </c>
       <c r="B26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>45976</v>
+      <c r="A27" s="12">
+        <v>45581</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>45981</v>
+        <v>45583</v>
       </c>
       <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>45983</v>
+        <v>45586</v>
       </c>
       <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>45987</v>
+      <c r="A30" s="12">
+        <v>45588</v>
       </c>
       <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>45988</v>
+        <v>45589</v>
       </c>
       <c r="B31" s="2">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>45990</v>
+      <c r="A32" s="12">
+        <v>45590</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>45995</v>
+        <v>45595</v>
       </c>
       <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>45997</v>
+        <v>45967</v>
       </c>
       <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>46000</v>
+      <c r="A35" s="12">
+        <v>45974</v>
       </c>
       <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>45976</v>
+      </c>
+      <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>46002</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>46004</v>
+        <v>45981</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
@@ -982,25 +1017,25 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>46009</v>
+        <v>45983</v>
       </c>
       <c r="B38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <v>46010</v>
+        <v>45987</v>
       </c>
       <c r="B39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>45665</v>
+      <c r="A40" s="12">
+        <v>45988</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -1009,7 +1044,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <v>45667</v>
+        <v>45990</v>
       </c>
       <c r="B41" s="2">
         <v>3</v>
@@ -1018,16 +1053,16 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>45672</v>
+        <v>45995</v>
       </c>
       <c r="B42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>45674</v>
+        <v>45997</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
@@ -1035,17 +1070,17 @@
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>45679</v>
+      <c r="A44" s="13">
+        <v>46000</v>
       </c>
       <c r="B44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
-        <v>45686</v>
+        <v>46002</v>
       </c>
       <c r="B45" s="2">
         <v>3</v>
@@ -1054,77 +1089,178 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
-        <v>45688</v>
-      </c>
-      <c r="B46" s="15">
-        <v>2</v>
+        <v>46004</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
+        <v>46009</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>46010</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>45665</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>45667</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>45672</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>45674</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>45679</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>45686</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>45688</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
         <v>45695</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B56" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
         <v>45700</v>
       </c>
-      <c r="B48" s="15">
-        <v>3</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
         <v>45702</v>
       </c>
-      <c r="B49" s="15">
-        <v>3</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15">
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>45713</v>
+      </c>
+      <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="15">
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>45714</v>
+      </c>
+      <c r="B60" s="2">
         <v>5</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15">
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>45715</v>
+      </c>
+      <c r="B61" s="2">
         <v>4</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <v>45721</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B54" t="str">
-        <f>"totaal: " &amp; SUM(B8:B53)</f>
-        <v>totaal: 130</v>
+      <c r="B62" s="15">
+        <v>5</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>45722</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
+        <f>"totaal: " &amp; SUM(B8:B63)</f>
+        <v>totaal: 152</v>
       </c>
     </row>
   </sheetData>
@@ -1134,20 +1270,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1404,6 +1540,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C25D75-4D62-4D5D-AA04-356B3D175FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1416,14 +1560,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Babst\Documents\GitHub\workload-sharing-cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EBC2D-6D06-4DDD-B882-8C325F0212E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783FE939-6807-49EE-8A8C-9AE18DCFBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15885" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Logboek</t>
   </si>
@@ -101,7 +101,10 @@
     <t>in twijfel trekken of kubernetes wel handig is en een test-setup maken</t>
   </si>
   <si>
-    <t>14:00-16:00 17:00-17:45   afwerken logboek, beginnen verslag?</t>
+    <t>afwerken logboek, beginnen verslag?</t>
+  </si>
+  <si>
+    <t>windows op server en nuc zetten</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81495A-0DF2-4772-8080-730C001C6703}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,8 +685,8 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>"missende uren: " &amp; 200-SUM(B8:B63)</f>
-        <v>missende uren: 48</v>
+        <f>"missende uren: " &amp; 200-SUM(B8:B64)</f>
+        <v>missende uren: 43</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -804,7 +807,7 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1241,10 +1244,10 @@
       <c r="A62" s="13">
         <v>45721</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="2">
         <v>5</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1252,15 +1255,28 @@
       <c r="A63" s="14">
         <v>45722</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="15">
+        <v>3</v>
+      </c>
       <c r="C63" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B64" t="str">
-        <f>"totaal: " &amp; SUM(B8:B63)</f>
-        <v>totaal: 152</v>
+    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B65" t="str">
+        <f>"totaal: " &amp; SUM(B8:B64)</f>
+        <v>totaal: 157</v>
       </c>
     </row>
   </sheetData>
@@ -1270,20 +1286,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1540,14 +1556,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C25D75-4D62-4D5D-AA04-356B3D175FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1560,6 +1568,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Babst\Documents\GitHub\workload-sharing-cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783FE939-6807-49EE-8A8C-9AE18DCFBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152D2DC-1F55-4E3C-8A2D-D99DBCBDE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15885" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -628,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81495A-0DF2-4772-8080-730C001C6703}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,8 +685,8 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>"missende uren: " &amp; 200-SUM(B8:B64)</f>
-        <v>missende uren: 43</v>
+        <f>"missende uren: " &amp; 200-SUM(B8:B65)</f>
+        <v>missende uren: 40</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1255,28 +1255,33 @@
       <c r="A63" s="14">
         <v>45722</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="2">
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14">
+    <row r="64" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
         <v>45723</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B65" s="3">
         <v>2</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B65" t="str">
-        <f>"totaal: " &amp; SUM(B8:B64)</f>
-        <v>totaal: 157</v>
+    <row r="66" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
+        <f>"totaal: " &amp; SUM(B8:B65)</f>
+        <v>totaal: 160</v>
       </c>
     </row>
   </sheetData>
@@ -1286,20 +1291,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1556,6 +1561,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C25D75-4D62-4D5D-AA04-356B3D175FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1568,14 +1581,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Babst\Documents\GitHub\workload-sharing-cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152D2DC-1F55-4E3C-8A2D-D99DBCBDE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02D4CC-9E2E-46A4-8579-8C70751CDAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
+    <workbookView xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="16440" xr2:uid="{D6555E1F-2CCC-474C-9448-7729A4A91A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Logboek</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>windows op server en nuc zetten</t>
+  </si>
+  <si>
+    <t>ergens nog 4 uur op 17-03-2025</t>
+  </si>
+  <si>
+    <t>en 2,5 uur op 18-03-2025</t>
+  </si>
+  <si>
+    <t>en 30 mins op 15-03-2025</t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -313,7 +322,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -628,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81495A-0DF2-4772-8080-730C001C6703}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1271,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="15">
+      <c r="B64" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1282,6 +1290,21 @@
       <c r="B66" t="str">
         <f>"totaal: " &amp; SUM(B8:B65)</f>
         <v>totaal: 160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1291,20 +1314,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3a186755-4862-4d33-9e98-6116ba956cf5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,14 +1584,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C25D75-4D62-4D5D-AA04-356B3D175FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1581,6 +1596,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66678C54-1FB0-4EA0-BCA8-734843C7E81C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
